--- a/bots/crawl_ch/output/bread_coop_2022-12-12.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-12.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Ölz Super Soft Sandwich 4.10 Schweizer Franken</t>
+          <t>Ölz Super Soft Sandwich - Online kein Bestand 4.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Fina Dünn Eckig Ausgewallt 25x38cm 4.20 Schweizer Franken</t>
+          <t>Buitoni Pizzateig Fina Dünn Eckig Ausgewallt 25x38cm - Online kein Bestand 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Prix Garantie Blätterteig eckig 1.00 Schweizer Franken</t>
+          <t>Prix Garantie Blätterteig eckig - Online kein Bestand 1.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Betty Bossi Blätterteig ausgewallt rund 1.70 Schweizer Franken</t>
+          <t>Betty Bossi Blätterteig ausgewallt rund - Online kein Bestand 1.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig ausgewallt 28x38cm 4.40 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig ausgewallt 28x38cm - Online kein Bestand 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Betty Bossi Butterblätterteig eckig ausgewallt 25x42cm 3.70 Schweizer Franken</t>
+          <t>Betty Bossi Butterblätterteig eckig ausgewallt 25x42cm - Online kein Bestand 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -7058,7 +7058,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig rund ausgewallt Ø32cm 3.20 Schweizer Franken</t>
+          <t>Leisi Blätterteig rund ausgewallt Ø32cm - Online kein Bestand 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -7273,7 +7273,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8340,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -8547,7 +8547,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -8610,7 +8610,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Classica Original Rund Ausgewallt Ø24cm 3.20 Schweizer Franken</t>
+          <t>Buitoni Pizzateig Classica Original Rund Ausgewallt Ø24cm - Online kein Bestand 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -8762,7 +8762,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -8900,7 +8900,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -9042,7 +9042,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -9115,7 +9115,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9549,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -9760,7 +9760,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -9829,7 +9829,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9898,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -10040,7 +10040,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -10109,7 +10109,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -10178,7 +10178,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -10247,7 +10247,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -10316,7 +10316,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -10462,7 +10462,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig eckig ausgewallt 25x42cm 5.30 Schweizer Franken</t>
+          <t>Leisi Blätterteig eckig ausgewallt 25x42cm - Online kein Bestand 5.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -11111,7 +11111,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -11184,7 +11184,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -11253,7 +11253,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -11385,13 +11385,13 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln mit Honig 3x32g 2.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Reiswaffeln mit Honig 3x32g - Online kein Bestand 2.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -11529,7 +11529,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -11598,7 +11598,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -11740,7 +11740,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -12101,7 +12101,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -12170,7 +12170,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -12312,7 +12312,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -12381,7 +12381,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -12454,7 +12454,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -12594,7 +12594,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -12667,7 +12667,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -12813,7 +12813,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -12882,7 +12882,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -12951,7 +12951,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -13024,7 +13024,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -13097,7 +13097,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -13243,7 +13243,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -13316,7 +13316,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -13385,7 +13385,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -13454,7 +13454,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -13527,7 +13527,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13596,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -13665,7 +13665,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -13738,7 +13738,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -13811,7 +13811,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -13880,7 +13880,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -13949,7 +13949,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -14022,7 +14022,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -14095,7 +14095,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -14168,7 +14168,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -14237,7 +14237,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -14306,7 +14306,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -14379,7 +14379,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -14452,7 +14452,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -14521,7 +14521,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -14590,7 +14590,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -14659,7 +14659,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -14728,7 +14728,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -14797,7 +14797,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -14870,7 +14870,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -14943,7 +14943,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -15085,7 +15085,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -15154,7 +15154,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -15223,7 +15223,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -15438,7 +15438,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -15511,7 +15511,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -15580,7 +15580,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -15653,7 +15653,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -15726,7 +15726,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -15795,7 +15795,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -15868,7 +15868,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -15941,7 +15941,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -16014,7 +16014,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -16087,7 +16087,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -16156,7 +16156,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -16302,7 +16302,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -16375,7 +16375,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -16444,7 +16444,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -16513,7 +16513,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -16655,7 +16655,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -16724,7 +16724,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -16793,7 +16793,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -16866,7 +16866,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -16935,7 +16935,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -17004,7 +17004,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -17077,7 +17077,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -17150,28 +17150,28 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>6435446</t>
+          <t>3504615</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück</t>
+          <t>Betty Bossi Pastateig 2x16x56cm</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pastateig-2x16x56cm/p/3504615</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E236" t="n">
         <v>4.5</v>
@@ -17183,12 +17183,12 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>1.08/100g</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17198,7 +17198,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17208,42 +17208,42 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>Prix Garantie Yeah! 5 Stück 2.30 Schweizer Franken</t>
+          <t>Betty Bossi Pastateig 2x16x56cm 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>6695031</t>
+          <t>6435446</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade</t>
+          <t>Prix Garantie Yeah! 5 Stück</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-yeah-5-stueck/p/6435446</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E237" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -17252,12 +17252,12 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>0.63/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17267,7 +17267,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -17282,51 +17282,51 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>Prix Garantie Erdbeer Roulade 2.50 Schweizer Franken</t>
+          <t>Prix Garantie Yeah! 5 Stück 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>5719276</t>
+          <t>6695031</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
+          <t>Prix Garantie Erdbeer Roulade</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-erdbeer-roulade/p/6695031</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>0.63/100g</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17336,7 +17336,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17346,56 +17346,56 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 3.95 Schweizer Franken</t>
+          <t>Prix Garantie Erdbeer Roulade 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>3504615</t>
+          <t>5719276</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Betty Bossi Pastateig 2x16x56cm</t>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pastateig-2x16x56cm/p/3504615</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E239" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>1.08/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17405,7 +17405,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17415,18 +17415,18 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>Betty Bossi Pastateig 2x16x56cm 2.70 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -17495,7 +17495,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -17564,7 +17564,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -17631,7 +17631,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -17700,7 +17700,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -17773,7 +17773,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -17846,7 +17846,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -17919,7 +17919,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -17992,7 +17992,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -18061,7 +18061,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -18130,45 +18130,45 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>6628849</t>
+          <t>3041946</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake</t>
+          <t>Roland Knäckebrot Exquis Sesam</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628849</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E250" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>1.25/100g</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18178,7 +18178,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18188,56 +18188,60 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>Betty Bossi Grossmutters Schoggi Cake 2.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N250" t="inlineStr"/>
+          <t>Roland Knäckebrot Exquis Sesam 20% ab 2 Aktion 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>3041946</t>
+          <t>6628849</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam</t>
+          <t>Betty Bossi Grossmutters Schoggi Cake</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-exquis-sesam/p/3041946</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-grossmutters-schoggi-cake/p/6628849</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E251" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>1.25/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18247,7 +18251,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18257,22 +18261,18 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Exquis Sesam 20% ab 2 Aktion 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N251" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Grossmutters Schoggi Cake 2.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -18341,7 +18341,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -18414,7 +18414,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -18483,7 +18483,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -18556,7 +18556,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -18623,7 +18623,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -18696,45 +18696,45 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>6750015</t>
+          <t>5989712</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché</t>
+          <t>Wasa Knäckebrot glutenfrei</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>1.34/100g</t>
+          <t>1.63/100g</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18744,7 +18744,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -18754,60 +18754,56 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Schär Pain Brioché 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N258" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Wasa Knäckebrot glutenfrei 20% ab 2 Aktion 3.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>5989712</t>
+          <t>6750015</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei</t>
+          <t>Schär Pain Brioché</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-pain-brioche/p/6750015</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>1.63/100g</t>
+          <t>1.34/100g</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -18817,7 +18813,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -18827,18 +18823,22 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei 20% ab 2 Aktion 3.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N259" t="inlineStr"/>
+          <t>Schär Pain Brioché 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -18907,7 +18907,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -18976,7 +18976,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -19045,7 +19045,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -19114,7 +19114,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -19183,7 +19183,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -19256,7 +19256,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -19329,7 +19329,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -19398,7 +19398,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -19467,7 +19467,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -19538,7 +19538,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -19611,7 +19611,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -19680,7 +19680,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -19749,7 +19749,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -19818,7 +19818,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -19891,7 +19891,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -19962,7 +19962,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -20031,7 +20031,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -20104,7 +20104,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -20177,7 +20177,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -20250,31 +20250,31 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>3040971</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Panettone</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E280" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -20283,12 +20283,12 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20298,7 +20298,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -20308,188 +20308,184 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N280" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Panettone 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>4314837</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E281" t="n">
         <v>4.5</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Kale</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>4.39/1kg</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N281" t="inlineStr"/>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>3378447</t>
+          <t>4314837</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Betty Bossi Anis-Chräbeli Guetzliteig</t>
+          <t>Kale Dürüm 30cm 18 Stück</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-anis-chraebeli-guetzliteig/p/3378447</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E282" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Kale</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>0.68/100g</t>
+          <t>4.39/1kg</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Betty Bossi Anis-Chräbeli Guetzliteig 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N282" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>3040971</t>
+          <t>3378447</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Panettone</t>
+          <t>Betty Bossi Anis-Chräbeli Guetzliteig</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone/p/3040971</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-anis-chraebeli-guetzliteig/p/3378447</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E283" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -20498,12 +20494,12 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>0.68/100g</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20513,7 +20509,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20523,42 +20519,44 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Panettone 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N283" t="inlineStr"/>
+          <t>Betty Bossi Anis-Chräbeli Guetzliteig 3.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>5661142</t>
+          <t>6739419</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
+          <t>Betty Bossi Pfaffenhut 2x  100g</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
-        </is>
-      </c>
-      <c r="D284" t="n">
-        <v>35</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-pfaffenhut/p/6739419</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
       <c r="E284" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -20567,12 +20565,12 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2.68/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20582,7 +20580,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20592,44 +20590,42 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N284" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Pfaffenhut 2x  100g 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>6739419</t>
+          <t>5661142</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Betty Bossi Pfaffenhut 2x  100g</t>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-pfaffenhut/p/6739419</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>35</v>
+      </c>
       <c r="E285" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -20638,12 +20634,12 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>2.68/100g</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20653,7 +20649,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20663,18 +20659,22 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Betty Bossi Pfaffenhut 2x  100g 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N285" t="inlineStr"/>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -20743,7 +20743,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -20816,7 +20816,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -20889,7 +20889,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -20962,45 +20962,45 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>6390812</t>
+          <t>6010377</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g</t>
+          <t>Cailler Schoggi Branchli Cake</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/cailler-schoggi-branchli-cake/p/6010377</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E290" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Cailler</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>1.25/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21010,7 +21010,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -21025,51 +21025,51 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g 2.50 Schweizer Franken</t>
+          <t>Cailler Schoggi Branchli Cake 5.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>6010377</t>
+          <t>6390812</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Cailler Schoggi Branchli Cake</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/cailler-schoggi-branchli-cake/p/6010377</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E291" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Cailler</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>1.25/100g</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21079,7 +21079,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -21094,13 +21094,13 @@
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>Cailler Schoggi Branchli Cake 5.80 Schweizer Franken</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -21173,7 +21173,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -21246,7 +21246,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -21319,7 +21319,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -21388,7 +21388,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -21461,7 +21461,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -21530,7 +21530,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -21603,7 +21603,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -21672,7 +21672,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -21741,7 +21741,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -21814,7 +21814,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -21887,7 +21887,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -22033,7 +22033,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -22106,7 +22106,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -22179,7 +22179,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -22248,7 +22248,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -22317,7 +22317,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -22386,7 +22386,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -22459,7 +22459,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -22528,7 +22528,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -22597,7 +22597,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -22670,7 +22670,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -22743,7 +22743,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -22816,7 +22816,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -22889,7 +22889,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -22958,7 +22958,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -23027,45 +23027,45 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>7014628</t>
+          <t>6729406</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa</t>
+          <t>Roland Sport Banana Cranberry</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E319" t="n">
         <v>5</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>4.94/100g</t>
+          <t>3.41/100g</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23075,7 +23075,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -23085,56 +23085,56 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa 3.95 Schweizer Franken</t>
+          <t>Roland Sport Banana Cranberry 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>6729406</t>
+          <t>6315330</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry</t>
+          <t>Old El Paso Tortilla Bowls Seasalt</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E320" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>3.41/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -23144,7 +23144,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -23154,56 +23154,60 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N320" t="inlineStr"/>
+          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>6315330</t>
+          <t>7014628</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt</t>
+          <t>Dar-Vida Rustico Roggen-Quinoa</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-bowls-seasalt/p/6315330</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E321" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>4.94/100g</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23213,7 +23217,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23223,22 +23227,18 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla Bowls Seasalt 3.65 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N321" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Rustico Roggen-Quinoa 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -23307,7 +23307,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -23380,7 +23380,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -23449,43 +23449,45 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>3003206</t>
+          <t>6668612</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Olo Haselnuss Lebkuchen</t>
+          <t>Prix Garantie Kuchenteig Block</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/olo-haselnuss-lebkuchen/p/3003206</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>2</v>
+      </c>
       <c r="E325" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Olo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>2.95/100g</t>
+          <t>0.35/100g</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23495,7 +23497,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23505,56 +23507,58 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Olo Haselnuss Lebkuchen 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N325" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>6668612</t>
+          <t>3003206</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block</t>
+          <t>Olo Haselnuss Lebkuchen</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
-        </is>
-      </c>
-      <c r="D326" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/olo-haselnuss-lebkuchen/p/3003206</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr"/>
       <c r="E326" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Olo</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>0.35/100g</t>
+          <t>2.95/100g</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23564,7 +23568,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -23574,60 +23578,56 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N326" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Olo Haselnuss Lebkuchen 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>3446126</t>
+          <t>7059921</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit</t>
+          <t>Roland Knäckebrot Linsen-Protein</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E327" t="n">
         <v>5</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>2.19/100g</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23637,7 +23637,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -23647,56 +23647,60 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N327" t="inlineStr"/>
+          <t>Roland Knäckebrot Linsen-Protein 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>7059921</t>
+          <t>3446126</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein</t>
+          <t>Old El Paso Enchilada Kit</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E328" t="n">
         <v>5</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>2.19/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -23706,7 +23710,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -23716,22 +23720,18 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein 20% ab 2 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N328" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Old El Paso Enchilada Kit 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -23800,7 +23800,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -23873,45 +23873,45 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>5910015</t>
+          <t>6869975</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam</t>
+          <t>Roland Knäckers Nature</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
         </is>
       </c>
       <c r="D331" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" t="n">
         <v>4</v>
       </c>
-      <c r="E331" t="n">
-        <v>5</v>
-      </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>2.11/100g</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -23921,7 +23921,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -23931,39 +23931,43 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N331" t="inlineStr"/>
+          <t>Roland Knäckers Nature 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>6533663</t>
+          <t>5910015</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers</t>
+          <t>Country Cracker Sesam</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam/p/5910015</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E332" t="n">
         <v>5</v>
@@ -23975,12 +23979,12 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -23990,7 +23994,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -24000,56 +24004,56 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Country Cracker Sesam 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>6869975</t>
+          <t>6533663</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature</t>
+          <t>Fine Food Sesame Rice Crackers</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-nature/p/6869975</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E333" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>2.11/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24059,7 +24063,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24069,60 +24073,54 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>Roland Knäckers Nature 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N333" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>6500790</t>
+          <t>6610484</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat</t>
+          <t>Sapori PanettOne</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
-        </is>
-      </c>
-      <c r="D334" t="n">
-        <v>7</v>
-      </c>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-panettone/p/6610484</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr"/>
       <c r="E334" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.95/100g</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24132,7 +24130,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -24142,54 +24140,56 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
+          <t>Sapori PanettOne 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>6610484</t>
+          <t>6500790</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Sapori PanettOne</t>
+          <t>St.Michel Mini Brownies Chocolat</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-panettone/p/6610484</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>7</v>
+      </c>
       <c r="E335" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>2.95/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -24209,56 +24209,56 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>Sapori PanettOne 2.95 Schweizer Franken</t>
+          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>6581130</t>
+          <t>6729458</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Dona Pita Brot</t>
+          <t>Roland Cracker Sport High Protein Choco</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-cracker-sport-high-protein-choco/p/6729458</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E336" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Dona</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>0.57/100g</t>
+          <t>3.41/100g</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -24268,7 +24268,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -24278,56 +24278,56 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
+          <t>Roland Cracker Sport High Protein Choco 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>6729458</t>
+          <t>6877281</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Roland Cracker Sport High Protein Choco</t>
+          <t>Nussweggli</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/roland-cracker-sport-high-protein-choco/p/6729458</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E337" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>3.41/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24337,7 +24337,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -24347,56 +24347,56 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Roland Cracker Sport High Protein Choco 4.60 Schweizer Franken</t>
+          <t>Nussweggli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>6877281</t>
+          <t>6581130</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Nussweggli</t>
+          <t>Dona Pita Brot</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/nussweggli/p/6877281</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E338" t="n">
         <v>2.5</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Dona</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>0.57/100g</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24406,7 +24406,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -24416,39 +24416,39 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Nussweggli 4.95 Schweizer Franken</t>
+          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>6387361</t>
+          <t>6863658</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis</t>
+          <t>Country Cracker Thymian Stange</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E339" t="n">
         <v>5</v>
@@ -24460,12 +24460,12 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24475,7 +24475,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -24485,43 +24485,39 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N339" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>6863658</t>
+          <t>6387361</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange</t>
+          <t>Karma Snack Schwarzer Reis</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E340" t="n">
         <v>5</v>
@@ -24533,12 +24529,12 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24548,7 +24544,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -24558,18 +24554,22 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N340" t="inlineStr"/>
+          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -24638,45 +24638,45 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>7036109</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Quicook Kuchenteig</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/inspiration-geschenke/ernaehrung/vegan/brot-backwaren/quicook-kuchenteig/p/7036109</t>
         </is>
       </c>
       <c r="D342" t="n">
         <v>1</v>
       </c>
       <c r="E342" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24686,7 +24686,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -24696,56 +24696,60 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['inspiration-geschenke', 'ernaehrung', 'vegan', 'brot-backwaren']</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N342" t="inlineStr"/>
+          <t>Quicook Kuchenteig 2.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>7036109</t>
+          <t>4490655</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Quicook Kuchenteig</t>
+          <t>Brossard Zwieback Honig</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/ernaehrung/vegan/brot-backwaren/quicook-kuchenteig/p/7036109</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E343" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>Brossard</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>1.26/100g</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -24755,7 +24759,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -24765,60 +24769,56 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'ernaehrung', 'vegan', 'brot-backwaren']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>Quicook Kuchenteig 2.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N343" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Brossard Zwieback Honig 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>4490655</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Brossard</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>1.26/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -24838,18 +24838,18 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig 4.40 Schweizer Franken</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -24918,7 +24918,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -24991,7 +24991,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -25060,7 +25060,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -25129,7 +25129,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -25198,7 +25198,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -25267,7 +25267,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -25340,7 +25340,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -25409,45 +25409,45 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>4234829</t>
+          <t>3845685</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g</t>
+          <t>Slow Food Roggenbrot</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E353" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25457,7 +25457,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -25467,60 +25467,56 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N353" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>3845685</t>
+          <t>4234829</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot</t>
+          <t>Schär Wraps glutenfrei 2x80g</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E354" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25530,7 +25526,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -25540,18 +25536,22 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N354" t="inlineStr"/>
+          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -25620,7 +25620,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -25689,7 +25689,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -25758,7 +25758,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -25831,7 +25831,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -25900,7 +25900,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -25969,45 +25969,45 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6857773</t>
+          <t>6421153</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait</t>
+          <t>Naturaplan Bio Panettone Artigianale</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/naturaplan-bio-panettone-artigianale/p/6421153</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E361" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>3.80/100g</t>
+          <t>3.19/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26017,7 +26017,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -26027,56 +26027,56 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Dar-Vida Choco au lait 1.75 Schweizer Franken</t>
+          <t>Naturaplan Bio Panettone Artigianale 20% Aktion 15.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>6421153</t>
+          <t>6857773</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Panettone Artigianale</t>
+          <t>Dar-Vida Choco au lait</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/naturaplan-bio-panettone-artigianale/p/6421153</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/dar-vida-choco-au-lait/p/6857773</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E362" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>3.19/100g</t>
+          <t>3.80/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26086,7 +26086,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26096,18 +26096,18 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Panettone Artigianale 20% Aktion 15.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Dar-Vida Choco au lait 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -26176,7 +26176,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -26245,7 +26245,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -26314,7 +26314,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -26381,7 +26381,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -26450,7 +26450,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -26519,45 +26519,45 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E369" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26567,7 +26567,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26577,60 +26577,54 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N369" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Mezeast Chicken Shawarma Wrap Kit 30% ab 2 Aktion 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>7038595</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Riduto Crisp Bread Kräuter</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
-        </is>
-      </c>
-      <c r="D370" t="n">
-        <v>8</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
       <c r="E370" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26640,7 +26634,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26650,54 +26644,56 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 30% ab 2 Aktion 6.95 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Kräuter 20% ab 2 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>7038595</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-kraeuter/p/7038595</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>18</v>
+      </c>
       <c r="E371" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -26707,7 +26703,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26717,18 +26713,22 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Kräuter 20% ab 2 Aktion 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N371" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -26797,7 +26797,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -26866,7 +26866,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -26939,7 +26939,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -27012,7 +27012,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -27081,7 +27081,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -27148,7 +27148,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -27215,7 +27215,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -27288,7 +27288,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -27357,7 +27357,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -27428,7 +27428,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -27501,7 +27501,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -27574,7 +27574,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -27645,7 +27645,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -27718,7 +27718,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -27787,45 +27787,43 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
-        </is>
-      </c>
-      <c r="D387" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr"/>
       <c r="E387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27835,7 +27833,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27845,58 +27843,60 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
+          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>7013464</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Betty Bossi Fussballteig</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-fussballteig/p/7013464</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>0.79/100g</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -27906,7 +27906,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27916,39 +27916,39 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
+          <t>Betty Bossi Fussballteig 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>7013464</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Betty Bossi Fussballteig</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-fussballteig/p/7013464</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -27959,17 +27959,17 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>0.79/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -27979,7 +27979,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27989,12 +27989,12 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Betty Bossi Fussballteig 3.95 Schweizer Franken</t>
+          <t>Leisi Kuchenteig eckig ausgewallt 5.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N389" t="inlineStr">
@@ -28004,7 +28004,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -28077,7 +28077,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -28146,7 +28146,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -28215,29 +28215,31 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>6629583</t>
+          <t>4529608</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Marmor Cake</t>
+          <t>Biberli Konfekt</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
-        </is>
-      </c>
-      <c r="D393" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/biberli-konfekt/p/4529608</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>1</v>
+      </c>
       <c r="E393" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
@@ -28246,12 +28248,12 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>2.06/100g</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28261,7 +28263,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28276,37 +28278,35 @@
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Marmor Cake 6.20 Schweizer Franken</t>
+          <t>Biberli Konfekt 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>4529608</t>
+          <t>6629583</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Biberli Konfekt</t>
+          <t>Marmor Cake</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/biberli-konfekt/p/4529608</t>
-        </is>
-      </c>
-      <c r="D394" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/marmor-cake/p/6629583</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr"/>
       <c r="E394" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
@@ -28315,12 +28315,12 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>2.06/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28330,7 +28330,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -28345,13 +28345,13 @@
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>Biberli Konfekt 4.95 Schweizer Franken</t>
+          <t>Marmor Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -28420,7 +28420,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -28487,7 +28487,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -28556,7 +28556,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -28627,45 +28627,43 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>6561501</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
-        </is>
-      </c>
-      <c r="D399" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr"/>
       <c r="E399" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -28675,7 +28673,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -28685,54 +28683,60 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N399" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>6561501</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>3</v>
+      </c>
       <c r="E400" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -28742,7 +28746,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -28752,39 +28756,35 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N400" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>6569962</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Pasquier Croissants 8 Stück</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-croissants-8-stueck/p/6569962</t>
         </is>
       </c>
       <c r="D401" t="inlineStr"/>
@@ -28793,17 +28793,17 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -28813,7 +28813,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -28823,35 +28823,35 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
+          <t>Pasquier Croissants 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>6569962</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Pasquier Croissants 8 Stück</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-croissants-8-stueck/p/6569962</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
         </is>
       </c>
       <c r="D402" t="inlineStr"/>
@@ -28860,17 +28860,17 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -28880,7 +28880,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -28890,18 +28890,18 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>Pasquier Croissants 8 Stück 3.95 Schweizer Franken</t>
+          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -28968,7 +28968,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -29037,7 +29037,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -29110,7 +29110,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -29179,7 +29179,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -29248,7 +29248,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -29315,7 +29315,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -29388,7 +29388,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
@@ -29461,7 +29461,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-12 12:57:14</t>
+          <t>2022-12-12 20:49:45</t>
         </is>
       </c>
     </row>
